--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/52680723/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/52680723/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9744576811790466</v>
+        <v>0.9621341228485107</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9742740988731384</v>
+        <v>0.9618625044822693</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9727911949157715</v>
+        <v>0.9599948525428772</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6516644954681396</v>
+        <v>0.5235489010810852</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9757750034332275</v>
+        <v>0.9638663530349731</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9766691923141479</v>
+        <v>0.9650804996490479</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9765080213546753</v>
+        <v>0.9648668169975281</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9759557247161865</v>
+        <v>0.964249849319458</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9765080213546753</v>
+        <v>0.9648668169975281</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5290074944496155</v>
+        <v>0.4248602092266083</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9782506823539734</v>
+        <v>0.9672392606735229</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9116011261940002</v>
+        <v>0.8181250691413879</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9754154682159424</v>
+        <v>0.963390588760376</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9754923582077026</v>
+        <v>0.9634895324707031</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9757825136184692</v>
+        <v>0.9638881683349609</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9758322238922119</v>
+        <v>0.9639670252799988</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3053074479103088</v>
+        <v>0.2819421887397766</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9771859645843506</v>
+        <v>0.9657812714576721</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9775574207305908</v>
+        <v>0.9662991166114807</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9731318950653076</v>
+        <v>0.9603500962257385</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9755343198776245</v>
+        <v>0.9635570049285889</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9771882295608521</v>
+        <v>0.9657883644104004</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9776665568351746</v>
+        <v>0.9664433002471924</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6511993408203125</v>
+        <v>0.5227327346801758</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2974089384078979</v>
+        <v>0.274143248796463</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9745113253593445</v>
+        <v>0.9621947407722473</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9742740988731384</v>
+        <v>0.9618625044822693</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9732568860054016</v>
+        <v>0.9605062007904053</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9757905602455139</v>
+        <v>0.9638801217079163</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9743253588676453</v>
+        <v>0.9619448184967041</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9767796397209167</v>
+        <v>0.9652306437492371</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8785838484764099</v>
+        <v>0.7968921065330505</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9121465086936951</v>
+        <v>0.818800687789917</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9071235656738281</v>
+        <v>0.8119029998779297</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9767098426818848</v>
+        <v>0.9651471376419067</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9087384939193726</v>
+        <v>0.8140619993209839</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9779621362686157</v>
+        <v>0.9668419361114502</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9075019955635071</v>
+        <v>0.8146891593933105</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8776403069496155</v>
+        <v>0.7970602512359619</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9779899716377258</v>
+        <v>0.9668782949447632</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8712676167488098</v>
+        <v>0.7686636447906494</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8833491802215576</v>
+        <v>0.8028242588043213</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9095261693000793</v>
+        <v>0.8151921629905701</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8861575722694397</v>
+        <v>0.8062481284141541</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8773699998855591</v>
+        <v>0.7952497601509094</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6353378295898438</v>
+        <v>0.5113427639007568</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8751788139343262</v>
+        <v>0.792405903339386</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9777153730392456</v>
+        <v>0.9665005207061768</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.880143940448761</v>
+        <v>0.7989087104797363</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.875307023525238</v>
+        <v>0.7936487793922424</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9740968942642212</v>
+        <v>0.9616750478744507</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.880143940448761</v>
+        <v>0.7989087104797363</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.880441427230835</v>
+        <v>0.7992333769798279</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9766119122505188</v>
+        <v>0.965005099773407</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9769071340560913</v>
+        <v>0.9654050469398499</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9781994223594666</v>
+        <v>0.967154860496521</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9070109724998474</v>
+        <v>0.8118739724159241</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9778668284416199</v>
+        <v>0.9667131304740906</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9761225581169128</v>
+        <v>0.9643616676330566</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9767773747444153</v>
+        <v>0.9652297496795654</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.977794885635376</v>
+        <v>0.9666123390197754</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9096655249595642</v>
+        <v>0.8153915405273438</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4285007417201996</v>
+        <v>0.4080130159854889</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9071560502052307</v>
+        <v>0.8119858503341675</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9071560502052307</v>
+        <v>0.8119858503341675</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9097034931182861</v>
+        <v>0.8154094815254211</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9071560502052307</v>
+        <v>0.8119858503341675</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7192912697792053</v>
+        <v>0.5862069725990295</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9766493439674377</v>
+        <v>0.9650581479072571</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.909346342086792</v>
+        <v>0.8149137496948242</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9714695811271667</v>
+        <v>0.9581445455551147</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9086825251579285</v>
+        <v>0.8140026330947876</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9755457639694214</v>
+        <v>0.9635847806930542</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9757674932479858</v>
+        <v>0.9638646841049194</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9086825251579285</v>
+        <v>0.8140026330947876</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9743266105651855</v>
+        <v>0.9619532823562622</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9086825251579285</v>
+        <v>0.8140026330947876</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.977179229259491</v>
+        <v>0.9657744765281677</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9087647199630737</v>
+        <v>0.8140667080879211</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9743396043777466</v>
+        <v>0.9619629979133606</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9087647199630737</v>
+        <v>0.8140667080879211</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.967595636844635</v>
+        <v>0.9530987143516541</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.967595636844635</v>
+        <v>0.9530987143516541</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9781872630119324</v>
+        <v>0.9671486020088196</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.909584641456604</v>
+        <v>0.8152275085449219</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9771444201469421</v>
+        <v>0.9657278656959534</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9086902141571045</v>
+        <v>0.814003586769104</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9743083715438843</v>
+        <v>0.9619129300117493</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9755368232727051</v>
+        <v>0.9635362029075623</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9755315780639648</v>
+        <v>0.9635298848152161</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9755533933639526</v>
+        <v>0.9635601043701172</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9755302667617798</v>
+        <v>0.9635224938392639</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.9635195136070251</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9755449891090393</v>
+        <v>0.9635418653488159</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9783081412315369</v>
+        <v>0.9673213958740234</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2447868883609772</v>
+        <v>0.2033380270004272</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9776096940040588</v>
+        <v>0.9663669466972351</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9744447469711304</v>
+        <v>0.9621001482009888</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9732115864753723</v>
+        <v>0.9604607820510864</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9772573709487915</v>
+        <v>0.9658880233764648</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6516846418380737</v>
+        <v>0.5211656093597412</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8799319863319397</v>
+        <v>0.8001709580421448</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9757567644119263</v>
+        <v>0.9638499617576599</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7296843528747559</v>
+        <v>0.5969580411911011</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9732487201690674</v>
+        <v>0.9605043530464172</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8842582702636719</v>
+        <v>0.8039209246635437</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6346451044082642</v>
+        <v>0.5061683654785156</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9745308756828308</v>
+        <v>0.962203323841095</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9742740988731384</v>
+        <v>0.9618625044822693</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8786430954933167</v>
+        <v>0.7969337701797485</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8833317756652832</v>
+        <v>0.8029088973999023</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9108076095581055</v>
+        <v>0.8168071508407593</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9778076410293579</v>
+        <v>0.9666329622268677</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9106388092041016</v>
+        <v>0.8167425990104675</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.96751469373703</v>
+        <v>0.9529931545257568</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9710866808891296</v>
+        <v>0.957650899887085</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6894447803497314</v>
+        <v>0.5577613711357117</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9764595627784729</v>
+        <v>0.9647958874702454</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9742740988731384</v>
+        <v>0.9618625044822693</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7196815609931946</v>
+        <v>0.5865944027900696</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9777269959449768</v>
+        <v>0.966510534286499</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7196815609931946</v>
+        <v>0.5865944027900696</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9777269959449768</v>
+        <v>0.966510534286499</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7196815609931946</v>
+        <v>0.5865944027900696</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9774695038795471</v>
+        <v>0.9661643505096436</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9744462370872498</v>
+        <v>0.9623170495033264</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9742740988731384</v>
+        <v>0.9618625044822693</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9765509963035583</v>
+        <v>0.9649113416671753</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9731185436248779</v>
+        <v>0.9603264331817627</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9710615873336792</v>
+        <v>0.9575932621955872</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8690673112869263</v>
+        <v>0.7868117094039917</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9758169054985046</v>
+        <v>0.9639383554458618</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9755027890205383</v>
+        <v>0.963517427444458</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9766976237297058</v>
+        <v>0.9651152491569519</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9669677019119263</v>
+        <v>0.9524191617965698</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9758018255233765</v>
+        <v>0.963901698589325</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9710949063301086</v>
+        <v>0.9576412439346313</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9711071252822876</v>
+        <v>0.9576509594917297</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9743044376373291</v>
+        <v>0.961894154548645</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5796558856964111</v>
+        <v>0.4350199997425079</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9742740988731384</v>
+        <v>0.9618625044822693</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9071395397186279</v>
+        <v>0.8119982481002808</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9761477708816528</v>
+        <v>0.9643887281417847</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9071395397186279</v>
+        <v>0.8119982481002808</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9675107002258301</v>
+        <v>0.9529890418052673</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7192912697792053</v>
+        <v>0.5862069725990295</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9744618535041809</v>
+        <v>0.9621263146400452</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9086000323295593</v>
+        <v>0.8138545751571655</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7211546301841736</v>
+        <v>0.588823676109314</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9742740988731384</v>
+        <v>0.9618625044822693</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6295374631881714</v>
+        <v>0.4967456758022308</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9779761433601379</v>
+        <v>0.9668464064598083</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6385019421577454</v>
+        <v>0.5100732445716858</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9776086807250977</v>
+        <v>0.9663528800010681</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6391046643257141</v>
+        <v>0.5107229948043823</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9761351943016052</v>
+        <v>0.9643629193305969</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6393669247627258</v>
+        <v>0.5108420848846436</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.976514458656311</v>
+        <v>0.9648772478103638</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9100704193115234</v>
+        <v>0.816024124622345</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9745737910270691</v>
+        <v>0.9622662663459778</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.967356264591217</v>
+        <v>0.9535936713218689</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9710874557495117</v>
+        <v>0.9576488137245178</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9070556163787842</v>
+        <v>0.8118634223937988</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9782278537750244</v>
+        <v>0.9672022461891174</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9676317572593689</v>
+        <v>0.9531219005584717</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8712416887283325</v>
+        <v>0.7879536151885986</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9106019139289856</v>
+        <v>0.8165551424026489</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9742740988731384</v>
+        <v>0.9618625044822693</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8712416887283325</v>
+        <v>0.7879536151885986</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.909631609916687</v>
+        <v>0.8153049349784851</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9742740988731384</v>
+        <v>0.9618625044822693</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9710624217987061</v>
+        <v>0.9575969576835632</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9710771441459656</v>
+        <v>0.9576135873794556</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9710624217987061</v>
+        <v>0.9575969576835632</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9710624217987061</v>
+        <v>0.9575969576835632</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9710771441459656</v>
+        <v>0.9576135873794556</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9744951128959656</v>
+        <v>0.9621439576148987</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9715120196342468</v>
+        <v>0.9582016468048096</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9758040904998779</v>
+        <v>0.9639076590538025</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9773894548416138</v>
+        <v>0.9660640954971313</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9766729474067688</v>
+        <v>0.9650933742523193</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7270491123199463</v>
+        <v>0.5946468114852905</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.977702260017395</v>
+        <v>0.9664857387542725</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9779943823814392</v>
+        <v>0.9668681621551514</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9769642949104309</v>
+        <v>0.9654704928398132</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9764824509620667</v>
+        <v>0.9648314118385315</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9745450615882874</v>
+        <v>0.9622454047203064</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9755066633224487</v>
+        <v>0.963499128818512</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9755216240882874</v>
+        <v>0.9635242819786072</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2337919324636459</v>
+        <v>0.1936729401350021</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9767261743545532</v>
+        <v>0.9651736617088318</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.975837767124176</v>
+        <v>0.9639618396759033</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7195560336112976</v>
+        <v>0.5867060422897339</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8798702359199524</v>
+        <v>0.7985025644302368</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9776485562324524</v>
+        <v>0.9664087891578674</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9764866232872009</v>
+        <v>0.9648340940475464</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9768938422203064</v>
+        <v>0.9653857946395874</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9772036075592041</v>
+        <v>0.9657978415489197</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9085392951965332</v>
+        <v>0.8138090968132019</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9772162437438965</v>
+        <v>0.9658226370811462</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9772407412528992</v>
+        <v>0.965857207775116</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9758224487304688</v>
+        <v>0.9639227390289307</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8714492321014404</v>
+        <v>0.7882115244865417</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9773113131523132</v>
+        <v>0.9659572839736938</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9710468649864197</v>
+        <v>0.9575870633125305</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2444935739040375</v>
+        <v>0.2016436904668808</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9714688062667847</v>
+        <v>0.9581237435340881</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.3187868297100067</v>
+        <v>0.2899936139583588</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9757306575775146</v>
+        <v>0.9638161063194275</v>
       </c>
     </row>
   </sheetData>
